--- a/biology/Médecine/Conduit_thoracique/Conduit_thoracique.xlsx
+++ b/biology/Médecine/Conduit_thoracique/Conduit_thoracique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conduit thoracique (ou canal thoracique), est le vaisseau lymphatique important et le plus volumineux du système lymphatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conduit thoracique nait de la réunion dans l'abdomen et en avant des deux premières vertèbres lombaires des deux troncs lymphatiques lombaires. Cette union est souvent dilatée formant la citerne de chyle.
 </t>
@@ -542,18 +556,11 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En moyenne, le conduit thoracique d'un humain adulte mesure de 38 à 45 cm pour un diamètre de 5 mm. Il comprend une partie abdominale, une partie thoracique et une partie cervicale.
-Partie abdominale du conduit thoracique
-Dans l'abdomen, le conduit thoracique monte à partir de la citerne de chyle en avant et à droite de la colonne vertébrale entre l'aorte et la veine azygos.
-Il sort de l'abdomen en traversant le diaphragme par le hiatus aortique.
-Il y reçoit les troncs lymphatiques intestinaux.
-Partie thoracique du conduit thoracique
-Le conduit thoracique sort du hiatus aortique pour pénétrer dans le médiastin postérieur entre l' aorte thoracique à sa gauche et la veine azygos à sa droite. Il est situé derrière l’œsophage au niveau de la septième vertèbre thoracique. Au niveau de la cinquième vertèbre thoracique, il franchit la ligne médiane vers la gauche en passant derrière la crosse aortique et à gauche de l’œsophage.
-Il y reçoit une partie des vaisseaux lymphatiques intercostaux.
-Partie cervicale du conduit thoracique
-Le conduit thoracique suit la face postero-médiale de l'artère subclavière gauche en décrivant l'arc du conduit thoracique (ou crosse du canal thoracique) pour aller se jeter vers la jonction des veines sous-clavière gauche gauche et jugulaire gauche[1]. Sa terminaison habituellement comporte deux valvules.
 </t>
         </is>
       </c>
@@ -579,10 +586,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Partie abdominale du conduit thoracique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'abdomen, le conduit thoracique monte à partir de la citerne de chyle en avant et à droite de la colonne vertébrale entre l'aorte et la veine azygos.
+Il sort de l'abdomen en traversant le diaphragme par le hiatus aortique.
+Il y reçoit les troncs lymphatiques intestinaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Partie thoracique du conduit thoracique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conduit thoracique sort du hiatus aortique pour pénétrer dans le médiastin postérieur entre l' aorte thoracique à sa gauche et la veine azygos à sa droite. Il est situé derrière l’œsophage au niveau de la septième vertèbre thoracique. Au niveau de la cinquième vertèbre thoracique, il franchit la ligne médiane vers la gauche en passant derrière la crosse aortique et à gauche de l’œsophage.
+Il y reçoit une partie des vaisseaux lymphatiques intercostaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Partie cervicale du conduit thoracique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conduit thoracique suit la face postero-médiale de l'artère subclavière gauche en décrivant l'arc du conduit thoracique (ou crosse du canal thoracique) pour aller se jeter vers la jonction des veines sous-clavière gauche gauche et jugulaire gauche. Sa terminaison habituellement comporte deux valvules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Variation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trajet caractéristique du canal thoracique n’existe que chez environ la moitié des individus.
 La citerne de chyle est absente pour environ la moitié des individus. Elle est absente lorsque qu'au cours du développement embryonnaire les troncs lombaires fusionnent au-dessus de la douzième vertèbre thoracique et dans ce cas elle peut être remplacée par une dilatation des troncs lombaires.
@@ -595,31 +718,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Conduit_thoracique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conduit thoracique draine toute la lymphe sous-diaphragmatique, à l'exception de celle du foie et de la paroi abdominale sus-ombilicale. Il draine également la lymphe de la partie gauche du thorax, de la tête, du cou et du membre supérieur gauche.
 Le transport lymphatique, dans le canal thoracique, est principalement provoqué par l'action de la respiration, aidée par le muscle lisse du canal et par des valvules internes qui empêchent la lymphe de redescendre. Il y a également deux valves à la jonction du canal avec la veine sous-clavière gauche, pour empêcher le reflux de sang veineux dans le canal. 
@@ -628,31 +753,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Conduit_thoracique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conduit_thoracique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal thoracique se dilate de manière adaptative en présence de certaines pathologies comme l'insuffisance cardiaque congestive, l'hypertension portale ou une tumeur maligne.
 Lorsque le canal thoracique est obstrué ou endommagé, une grande quantité de lymphe peut rapidement s'accumuler dans la cavité pleurale provocant un un chylothorax . 
